--- a/data.xlsx
+++ b/data.xlsx
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -799,7 +799,7 @@
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
